--- a/Consumer/BIRK.xlsx
+++ b/Consumer/BIRK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379DD0A-514B-014B-B687-28E42E306258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE56D6-24E5-684D-B049-3E7BCAE91829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2005,10 +2005,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>64.78</v>
-    <v>38.5</v>
-    <v>1.2050000000000001</v>
-    <v>0.14499999999999999</v>
-    <v>3.1340000000000001E-3</v>
+    <v>41</v>
+    <v>1.256</v>
+    <v>0.15</v>
+    <v>3.2290000000000001E-3</v>
+    <v>0.34</v>
+    <v>7.2950000000000003E-3</v>
     <v>USD</v>
     <v>Birkenstock Holding plc operates through Birkenstock Group B.V. &amp; Co. KG and its subsidiaries. Birkenstock is a global brand, which has developed a unisex portfolio of footbed-based products, anchored by its Core Silhouettes, the Madrid, Arizona, Boston, Gizeh and Mayari. Its proprietary footbed, which reflects the anatomy of the human foot, represents the foundation of its brand and products. It operates a vertically integrated manufacturing base and produce all its footbeds in Germany. In addition, it assembles the majority of its products in Germany and produce the remainder elsewhere in the European Union. The Company operates its channels, utilizing the business-to-business (B2B) channel to facilitate brand accessibility while fully engaging consumers in its direct-to-consumer (DTC) channel, which offers its complete product range and access to its silhouettes.</v>
     <v>5300</v>
@@ -2016,23 +2018,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Berkeley Square, LONDON, W1J 6EA GB</v>
-    <v>47.58</v>
+    <v>47.27</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45602.935467696094</v>
-    <v>45.05</v>
-    <v>8716214026</v>
+    <v>45616.000000022657</v>
+    <v>45.87</v>
+    <v>8754719012</v>
     <v>BIRKENSTOCK HOLDING PLC</v>
     <v>BIRKENSTOCK HOLDING PLC</v>
-    <v>47.34</v>
-    <v>73.406099999999995</v>
-    <v>46.26</v>
-    <v>46.405000000000001</v>
+    <v>46</v>
+    <v>73.738299999999995</v>
+    <v>46.46</v>
+    <v>46.61</v>
+    <v>46.95</v>
     <v>187829200</v>
     <v>BIRK</v>
     <v>BIRKENSTOCK HOLDING PLC (XNYS:BIRK)</v>
-    <v>467</v>
-    <v>944276</v>
+    <v>781603</v>
+    <v>951091</v>
     <v>2023</v>
   </rv>
   <rv s="1">
@@ -2060,6 +2063,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2079,6 +2084,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2095,7 +2101,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2106,13 +2112,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2175,13 +2184,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2224,6 +2239,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2231,6 +2249,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2931,14 +2952,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>46.405000000000001</v>
+        <v>46.61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>4.3778071451531897</v>
+        <v>4.3971466659969867</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2978,14 +2999,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.1340000000000001E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>33.318860955657492</v>
+        <v>33.466051269113152</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3026,14 +3047,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>8716214026</v>
+        <v>8754719012</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>3.1091480680903602E-2</v>
+        <v>3.0954734198612565E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3075,7 +3096,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.2050000000000001</v>
+        <v>1.256</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3107,7 +3128,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>-0.34928838743602764</v>
+        <v>-0.35215034582640758</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
